--- a/export.xlsx
+++ b/export.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A2:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,31 +421,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID Produktu: NE_LOGORYT_PRO, URL: https://www.arante.pl/edusensus-logopedia-pro-logorytmika.html, 1 386,00 zł</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Konkurencyjny URL dla NE_LOGORYT_PRO: https://masteredukacja.pl/logopedia-terapia-rozwoj/9208-logopedia-pro-logorytmika-32-5902539114737.html, 1 386,00 złKonkurencyjny URL dla NE_LOGORYT_PRO: https://swiatprogramow.pl/logorytmika-pro.html, Cena: 1 386,00 złKonkurencyjny URL dla NE_LOGORYT_PRO: https://www.3kropki.pl/p/edusensus-logopedia-pro-logorytmika.html, Cena: 1 489,99 złID Produktu: HARPO_BOARDMAKER, URL: https://www.arante.pl/boardmaker.html, 1 918,00 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Konkurencyjny URL dla HARPO_BOARDMAKER: https://www.harpo.com.pl/sklep/sprzet-wspomagajacy-komunikacje/oprogramowanie-wspomagajace-komunikacje/boardmaker-7/, Cena: 1999,00złKonkurencyjny URL dla HARPO_BOARDMAKER: https://swiatprogramow.pl/boardmaker.html, Cena: 1 918,00 złID Produktu: zab_tullo_457, URL: https://www.arante.pl/dyski-sensoryczne-4-szt.html, 86,50 zł</t>
+          <t>NE_LOGORYT_PRO: CENA OK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ID Produktu: zab_bel_67080, URL: https://www.arante.pl/lapacz-pileczek-zabawa-ruchowa.html, 159,00 zł</t>
+          <t>HARPO_BOARDMAKER: CENA OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brak linków konkurencji dla produktu zab_tullo_457.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brak linków konkurencji dla produktu zab_bel_67080.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Minimalna cena dla zab_bel_6850001: https://krainazabawy.pl/do-malowania/46267-beleduc-wirujace-kolory-kreatywny-zestaw-do-malowania-farbami-dla-dzieci-68500-4014888685002.html, 899.9 zł, Cena w Arante 1 050,00 zł wyższa o: 150.10 zł (14.30%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ARK_CARR_KIT: CENA OK</t>
         </is>
       </c>
     </row>
